--- a/biology/Botanique/Phytoandrogène/Phytoandrogène.xlsx
+++ b/biology/Botanique/Phytoandrogène/Phytoandrogène.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Phytoandrog%C3%A8ne</t>
+          <t>Phytoandrogène</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,15 +490,17 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Une substance phytoandrogène[1],[2] parfois appelée phytotestostérone[3],[4] est une substance produite naturellement par les plantes, qui du fait de la similarité de sa structure moléculaire avec la testostérone a la capacité de provoquer des effets similaires. Les substances phytoandrogènes produites par les plantes font partie des phytohormones[5],[6],[7].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Une substance phytoandrogène, parfois appelée phytotestostérone, est une substance produite naturellement par les plantes, qui du fait de la similarité de sa structure moléculaire avec la testostérone a la capacité de provoquer des effets similaires. Les substances phytoandrogènes produites par les plantes font partie des phytohormones.
 Sources de substances phytoandrogènes :
-Eucommia ulmoides[1]
-Eurycoma longifolia[2]
-le pollen de chêne augmenterait les taux de testostérone[8]
-le pollen de pin[9],[10],[11],[12] (pinus nigra[13], pinus silvestris[14])
-pastinaca sativa (panais cultivé)[13]</t>
+Eucommia ulmoides
+Eurycoma longifolia
+le pollen de chêne augmenterait les taux de testostérone
+le pollen de pin (pinus nigra, pinus silvestris)
+pastinaca sativa (panais cultivé)</t>
         </is>
       </c>
     </row>
